--- a/WpfApp1/Excep/Фурнитура.xlsx
+++ b/WpfApp1/Excep/Фурнитура.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1860" uniqueCount="704">
   <si>
     <t>На главную</t>
   </si>
@@ -939,9 +939,6 @@
   </si>
   <si>
     <t>КАРГО В НИЖНЮЮ БАЗУ (полного выдвижения)</t>
-  </si>
-  <si>
-    <t>АКС (при неналичии на АКСЕ бокового крепления перезакзывать на Боярде)</t>
   </si>
   <si>
     <t>Карго 150 ХРОМ с направляющими скрытого монтажа (62988)</t>
@@ -3044,8 +3041,8 @@
   </sheetPr>
   <dimension ref="A1:N763"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A742" workbookViewId="0">
+      <selection activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7680,16 +7677,16 @@
     </row>
     <row r="313" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B313" s="38" t="s">
         <v>305</v>
-      </c>
-      <c r="B313" s="38" t="s">
-        <v>306</v>
       </c>
       <c r="C313" s="38" t="s">
         <v>289</v>
       </c>
       <c r="E313" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F313" s="38" t="e">
         <v>#REF!</v>
@@ -7697,16 +7694,16 @@
     </row>
     <row r="314" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c r="B314" s="38" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C314" s="38" t="s">
         <v>289</v>
       </c>
       <c r="E314" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F314" s="38" t="e">
         <v>#REF!</v>
@@ -7714,16 +7711,16 @@
     </row>
     <row r="315" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c r="B315" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C315" s="38" t="s">
         <v>289</v>
       </c>
       <c r="E315" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F315" s="38" t="e">
         <v>#REF!</v>
@@ -7734,13 +7731,13 @@
         <v>77</v>
       </c>
       <c r="B316" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C316" s="38" t="s">
         <v>289</v>
       </c>
       <c r="E316" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F316" s="38" t="e">
         <v>#REF!</v>
@@ -7751,13 +7748,13 @@
         <v>77</v>
       </c>
       <c r="B317" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C317" s="38" t="s">
         <v>289</v>
       </c>
       <c r="E317" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F317" s="38" t="e">
         <v>#REF!</v>
@@ -7768,13 +7765,13 @@
         <v>77</v>
       </c>
       <c r="B318" s="38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C318" s="38" t="s">
         <v>289</v>
       </c>
       <c r="E318" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F318" s="38" t="e">
         <v>#REF!</v>
@@ -7785,13 +7782,13 @@
         <v>77</v>
       </c>
       <c r="B319" s="38" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C319" s="38" t="s">
         <v>289</v>
       </c>
       <c r="E319" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F319" s="38" t="e">
         <v>#REF!</v>
@@ -7802,13 +7799,13 @@
         <v>77</v>
       </c>
       <c r="B320" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C320" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="C320" s="38" t="s">
-        <v>315</v>
-      </c>
       <c r="E320" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F320" s="38" t="e">
         <v>#REF!</v>
@@ -7819,14 +7816,14 @@
         <v>77</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D321" s="6"/>
       <c r="E321" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F321" s="6" t="e">
         <v>#REF!</v>
@@ -7839,14 +7836,14 @@
         <v>77</v>
       </c>
       <c r="B322" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D322" s="6"/>
       <c r="E322" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F322" s="6" t="e">
         <v>#REF!</v>
@@ -7859,14 +7856,14 @@
         <v>77</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D323" s="6"/>
       <c r="E323" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F323" s="6" t="e">
         <v>#REF!</v>
@@ -7879,14 +7876,14 @@
         <v>77</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>289</v>
       </c>
       <c r="D324" s="6"/>
       <c r="E324" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F324" s="6" t="e">
         <v>#REF!</v>
@@ -7899,14 +7896,14 @@
         <v>77</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D325" s="6"/>
       <c r="E325" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F325" s="6" t="e">
         <v>#REF!</v>
@@ -7919,14 +7916,14 @@
         <v>153</v>
       </c>
       <c r="B326" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>289</v>
       </c>
       <c r="D326" s="6"/>
       <c r="E326" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F326" s="6" t="e">
         <v>#REF!</v>
@@ -7939,16 +7936,16 @@
         <v>30</v>
       </c>
       <c r="B327" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C327" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C327" s="6" t="s">
+      <c r="D327" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D327" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="E327" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F327" s="6" t="e">
         <v>#REF!</v>
@@ -7961,16 +7958,16 @@
         <v>30</v>
       </c>
       <c r="B328" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="C328" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="C328" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="D328" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E328" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F328" s="6" t="e">
         <v>#REF!</v>
@@ -7983,16 +7980,16 @@
         <v>30</v>
       </c>
       <c r="B329" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C329" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D329" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D329" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="E329" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F329" s="6" t="e">
         <v>#REF!</v>
@@ -8005,16 +8002,16 @@
         <v>30</v>
       </c>
       <c r="B330" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D330" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E330" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F330" s="6" t="e">
         <v>#REF!</v>
@@ -8027,16 +8024,16 @@
         <v>30</v>
       </c>
       <c r="B331" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D331" s="6" t="s">
         <v>188</v>
       </c>
       <c r="E331" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F331" s="6" t="e">
         <v>#REF!</v>
@@ -8049,16 +8046,16 @@
         <v>30</v>
       </c>
       <c r="B332" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D332" s="6" t="s">
         <v>187</v>
       </c>
       <c r="E332" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F332" s="6" t="e">
         <v>#REF!</v>
@@ -8071,16 +8068,16 @@
         <v>30</v>
       </c>
       <c r="B333" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D333" s="6" t="s">
         <v>188</v>
       </c>
       <c r="E333" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F333" s="6" t="e">
         <v>#REF!</v>
@@ -8093,16 +8090,16 @@
         <v>30</v>
       </c>
       <c r="B334" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>187</v>
       </c>
       <c r="E334" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F334" s="6" t="e">
         <v>#REF!</v>
@@ -8113,7 +8110,7 @@
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
       <c r="B335" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C335" s="6"/>
       <c r="D335" s="6"/>
@@ -8127,14 +8124,14 @@
         <v>77</v>
       </c>
       <c r="B336" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C336" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="C336" s="6" t="s">
-        <v>331</v>
       </c>
       <c r="D336" s="6"/>
       <c r="E336" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F336" s="6" t="e">
         <v>#REF!</v>
@@ -8147,14 +8144,14 @@
         <v>153</v>
       </c>
       <c r="B337" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C337" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="C337" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="D337" s="6"/>
       <c r="E337" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F337" s="6" t="e">
         <v>#REF!</v>
@@ -8165,7 +8162,7 @@
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C338" s="6"/>
       <c r="D338" s="6"/>
@@ -8179,16 +8176,16 @@
         <v>11</v>
       </c>
       <c r="B339" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C339" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="C339" s="6" t="s">
-        <v>336</v>
       </c>
       <c r="D339" s="6" t="s">
         <v>289</v>
       </c>
       <c r="E339" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F339" s="6" t="e">
         <v>#REF!</v>
@@ -8201,16 +8198,16 @@
         <v>11</v>
       </c>
       <c r="B340" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C340" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>338</v>
       </c>
       <c r="D340" s="6" t="s">
         <v>289</v>
       </c>
       <c r="E340" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F340" s="6" t="e">
         <v>#REF!</v>
@@ -8223,16 +8220,16 @@
         <v>11</v>
       </c>
       <c r="B341" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C341" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="C341" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="D341" s="6" t="s">
         <v>289</v>
       </c>
       <c r="E341" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F341" s="6" t="e">
         <v>#REF!</v>
@@ -8245,16 +8242,16 @@
         <v>11</v>
       </c>
       <c r="B342" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C342" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="C342" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="D342" s="6" t="s">
         <v>289</v>
       </c>
       <c r="E342" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F342" s="6" t="e">
         <v>#REF!</v>
@@ -8274,7 +8271,7 @@
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
       <c r="B344" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C344" s="6"/>
       <c r="D344" s="6"/>
@@ -8288,10 +8285,10 @@
         <v>77</v>
       </c>
       <c r="B345" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C345" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="C345" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="D345" s="6"/>
       <c r="E345" s="6" t="e">
@@ -8306,10 +8303,10 @@
         <v>77</v>
       </c>
       <c r="B346" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C346" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="C346" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="D346" s="6"/>
       <c r="E346" s="6" t="e">
@@ -8324,10 +8321,10 @@
         <v>77</v>
       </c>
       <c r="B347" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C347" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="C347" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="D347" s="6"/>
       <c r="E347" s="6" t="e">
@@ -8342,10 +8339,10 @@
         <v>153</v>
       </c>
       <c r="B348" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="C348" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="C348" s="6" t="s">
-        <v>351</v>
       </c>
       <c r="D348" s="6"/>
       <c r="E348" s="6" t="e">
@@ -8360,10 +8357,10 @@
         <v>153</v>
       </c>
       <c r="B349" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C349" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="C349" s="6" t="s">
-        <v>353</v>
       </c>
       <c r="D349" s="6"/>
       <c r="E349" s="6" t="e">
@@ -8378,10 +8375,10 @@
         <v>77</v>
       </c>
       <c r="B350" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C350" s="6" t="s">
         <v>354</v>
-      </c>
-      <c r="C350" s="6" t="s">
-        <v>355</v>
       </c>
       <c r="D350" s="6"/>
       <c r="E350" s="6" t="e">
@@ -8396,10 +8393,10 @@
         <v>77</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D351" s="6"/>
       <c r="E351" s="6" t="e">
@@ -8414,10 +8411,10 @@
         <v>77</v>
       </c>
       <c r="B352" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C352" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="C352" s="6" t="s">
-        <v>358</v>
       </c>
       <c r="D352" s="6"/>
       <c r="E352" s="6" t="e">
@@ -8432,10 +8429,10 @@
         <v>77</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D353" s="6"/>
       <c r="E353" s="6" t="e">
@@ -8457,7 +8454,7 @@
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C355" s="6"/>
       <c r="D355" s="6"/>
@@ -8471,7 +8468,7 @@
         <v>11</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C356" s="6"/>
       <c r="D356" s="6"/>
@@ -8485,7 +8482,7 @@
         <v>11</v>
       </c>
       <c r="B357" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C357" s="6"/>
       <c r="D357" s="6"/>
@@ -8506,7 +8503,7 @@
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C359" s="6"/>
       <c r="D359" s="6"/>
@@ -8520,16 +8517,16 @@
         <v>30</v>
       </c>
       <c r="B360" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C360" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>188</v>
       </c>
       <c r="E360" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F360" s="6" t="e">
         <v>#REF!</v>
@@ -8542,10 +8539,10 @@
         <v>30</v>
       </c>
       <c r="B361" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C361" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="C361" s="6" t="s">
-        <v>365</v>
       </c>
       <c r="D361" s="6" t="s">
         <v>187</v>
@@ -8562,16 +8559,16 @@
         <v>30</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>188</v>
       </c>
       <c r="E362" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F362" s="6" t="e">
         <v>#REF!</v>
@@ -8584,10 +8581,10 @@
         <v>30</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D363" s="6" t="s">
         <v>187</v>
@@ -8604,16 +8601,16 @@
         <v>30</v>
       </c>
       <c r="B364" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C364" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="C364" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="D364" s="6" t="s">
         <v>188</v>
       </c>
       <c r="E364" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F364" s="6" t="e">
         <v>#REF!</v>
@@ -8626,10 +8623,10 @@
         <v>30</v>
       </c>
       <c r="B365" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="C365" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="C365" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="D365" s="6" t="s">
         <v>187</v>
@@ -8653,7 +8650,7 @@
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
       <c r="B367" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C367" s="6"/>
       <c r="D367" s="6"/>
@@ -8667,10 +8664,10 @@
         <v>77</v>
       </c>
       <c r="B368" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="C368" s="6" t="s">
         <v>369</v>
-      </c>
-      <c r="C368" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="D368" s="6"/>
       <c r="E368" s="6" t="e">
@@ -8685,10 +8682,10 @@
         <v>153</v>
       </c>
       <c r="B369" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C369" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="C369" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="D369" s="6"/>
       <c r="E369" s="6" t="e">
@@ -8703,10 +8700,10 @@
         <v>77</v>
       </c>
       <c r="B370" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C370" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="C370" s="6" t="s">
-        <v>374</v>
       </c>
       <c r="D370" s="6"/>
       <c r="E370" s="6" t="e">
@@ -8721,10 +8718,10 @@
         <v>77</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D371" s="6"/>
       <c r="E371" s="6" t="e">
@@ -8739,10 +8736,10 @@
         <v>153</v>
       </c>
       <c r="B372" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C372" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="C372" s="6" t="s">
-        <v>377</v>
       </c>
       <c r="D372" s="6"/>
       <c r="E372" s="6" t="e">
@@ -8757,10 +8754,10 @@
         <v>77</v>
       </c>
       <c r="B373" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C373" s="6" t="s">
         <v>378</v>
-      </c>
-      <c r="C373" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="D373" s="6"/>
       <c r="E373" s="6" t="e">
@@ -8775,10 +8772,10 @@
         <v>77</v>
       </c>
       <c r="B374" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C374" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="C374" s="6" t="s">
-        <v>381</v>
       </c>
       <c r="D374" s="6"/>
       <c r="E374" s="6" t="e">
@@ -8793,10 +8790,10 @@
         <v>77</v>
       </c>
       <c r="B375" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C375" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="C375" s="6" t="s">
-        <v>383</v>
       </c>
       <c r="D375" s="6"/>
       <c r="E375" s="6" t="e">
@@ -8811,10 +8808,10 @@
         <v>77</v>
       </c>
       <c r="B376" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D376" s="6"/>
       <c r="E376" s="6" t="e">
@@ -8829,10 +8826,10 @@
         <v>77</v>
       </c>
       <c r="B377" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C377" s="6" t="s">
         <v>385</v>
-      </c>
-      <c r="C377" s="6" t="s">
-        <v>386</v>
       </c>
       <c r="D377" s="6"/>
       <c r="E377" s="6" t="e">
@@ -8847,10 +8844,10 @@
         <v>77</v>
       </c>
       <c r="B378" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C378" s="6" t="s">
         <v>387</v>
-      </c>
-      <c r="C378" s="6" t="s">
-        <v>388</v>
       </c>
       <c r="D378" s="6"/>
       <c r="E378" s="6" t="e">
@@ -8865,10 +8862,10 @@
         <v>77</v>
       </c>
       <c r="B379" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C379" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="C379" s="6" t="s">
-        <v>390</v>
       </c>
       <c r="D379" s="6"/>
       <c r="E379" s="6" t="e">
@@ -8883,10 +8880,10 @@
         <v>77</v>
       </c>
       <c r="B380" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C380" s="6" t="s">
         <v>391</v>
-      </c>
-      <c r="C380" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="D380" s="6"/>
       <c r="E380" s="6" t="e">
@@ -8901,10 +8898,10 @@
         <v>77</v>
       </c>
       <c r="B381" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="C381" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="C381" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="D381" s="6"/>
       <c r="E381" s="6" t="e">
@@ -8919,10 +8916,10 @@
         <v>77</v>
       </c>
       <c r="B382" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C382" s="6" t="s">
         <v>395</v>
-      </c>
-      <c r="C382" s="6" t="s">
-        <v>396</v>
       </c>
       <c r="D382" s="6"/>
       <c r="E382" s="6" t="e">
@@ -8937,10 +8934,10 @@
         <v>77</v>
       </c>
       <c r="B383" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D383" s="6"/>
       <c r="E383" s="6" t="e">
@@ -8955,10 +8952,10 @@
         <v>77</v>
       </c>
       <c r="B384" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="C384" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="C384" s="6" t="s">
-        <v>399</v>
       </c>
       <c r="D384" s="6"/>
       <c r="E384" s="6" t="e">
@@ -8973,10 +8970,10 @@
         <v>77</v>
       </c>
       <c r="B385" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C385" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="C385" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="D385" s="6"/>
       <c r="E385" s="6" t="e">
@@ -8998,7 +8995,7 @@
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C387" s="6"/>
       <c r="D387" s="6"/>
@@ -9012,7 +9009,7 @@
         <v>11</v>
       </c>
       <c r="B388" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C388" s="6"/>
       <c r="D388" s="6"/>
@@ -9028,7 +9025,7 @@
         <v>11</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C389" s="6"/>
       <c r="D389" s="6"/>
@@ -9041,13 +9038,13 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B390" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B390" s="6" t="s">
+      <c r="C390" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="C390" s="6" t="s">
-        <v>407</v>
       </c>
       <c r="D390" s="6"/>
       <c r="E390" s="6" t="e">
@@ -9059,13 +9056,13 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B391" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D391" s="6"/>
       <c r="E391" s="6" t="e">
@@ -9077,13 +9074,13 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B392" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C392" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="C392" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="D392" s="6"/>
       <c r="E392" s="6" t="e">
@@ -9095,13 +9092,13 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B393" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D393" s="6"/>
       <c r="E393" s="6" t="e">
@@ -9113,13 +9110,13 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B394" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C394" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="C394" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="D394" s="6"/>
       <c r="E394" s="6" t="e">
@@ -9131,10 +9128,10 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C395" s="6"/>
       <c r="D395" s="6"/>
@@ -9147,10 +9144,10 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B396" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C396" s="6"/>
       <c r="D396" s="6"/>
@@ -9163,10 +9160,10 @@
     </row>
     <row r="397" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B397" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C397" s="6"/>
       <c r="D397" s="6"/>
@@ -9179,10 +9176,10 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B398" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C398" s="6"/>
       <c r="D398" s="6"/>
@@ -9195,10 +9192,10 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B399" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C399" s="6"/>
       <c r="D399" s="6"/>
@@ -9211,10 +9208,10 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B400" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C400" s="6"/>
       <c r="D400" s="6"/>
@@ -9227,10 +9224,10 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B401" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C401" s="6"/>
       <c r="D401" s="6"/>
@@ -9243,10 +9240,10 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B402" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C402" s="6"/>
       <c r="D402" s="6"/>
@@ -9259,10 +9256,10 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B403" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C403" s="6"/>
       <c r="D403" s="6"/>
@@ -9278,10 +9275,10 @@
         <v>77</v>
       </c>
       <c r="B404" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C404" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="C404" s="6" t="s">
-        <v>424</v>
       </c>
       <c r="D404" s="6"/>
       <c r="E404" s="6" t="e">
@@ -9296,7 +9293,7 @@
         <v>77</v>
       </c>
       <c r="B405" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C405" s="6"/>
       <c r="D405" s="6"/>
@@ -9309,13 +9306,13 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C406" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="C406" s="6" t="s">
-        <v>427</v>
       </c>
       <c r="D406" s="6"/>
       <c r="E406" s="6" t="e">
@@ -9327,10 +9324,10 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B407" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C407" s="6"/>
       <c r="D407" s="6"/>
@@ -9346,10 +9343,10 @@
         <v>77</v>
       </c>
       <c r="B408" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C408" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="C408" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="D408" s="6"/>
       <c r="E408" s="6" t="e">
@@ -9364,7 +9361,7 @@
         <v>11</v>
       </c>
       <c r="B409" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C409" s="6"/>
       <c r="D409" s="6"/>
@@ -9380,7 +9377,7 @@
         <v>11</v>
       </c>
       <c r="B410" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C410" s="6"/>
       <c r="D410" s="6"/>
@@ -9396,10 +9393,10 @@
         <v>11</v>
       </c>
       <c r="B411" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C411" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="C411" s="6" t="s">
-        <v>434</v>
       </c>
       <c r="D411" s="6"/>
       <c r="E411" s="6" t="e">
@@ -9414,10 +9411,10 @@
         <v>11</v>
       </c>
       <c r="B412" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="C412" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="C412" s="6" t="s">
-        <v>436</v>
       </c>
       <c r="D412" s="6"/>
       <c r="E412" s="6" t="e">
@@ -9432,10 +9429,10 @@
         <v>11</v>
       </c>
       <c r="B413" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C413" s="6" t="s">
         <v>437</v>
-      </c>
-      <c r="C413" s="6" t="s">
-        <v>438</v>
       </c>
       <c r="D413" s="6"/>
       <c r="E413" s="6" t="e">
@@ -9450,10 +9447,10 @@
         <v>11</v>
       </c>
       <c r="B414" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D414" s="6"/>
       <c r="E414" s="6" t="e">
@@ -9475,7 +9472,7 @@
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C416" s="6"/>
       <c r="D416" s="6"/>
@@ -9489,7 +9486,7 @@
         <v>30</v>
       </c>
       <c r="B417" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C417" s="6"/>
       <c r="D417" s="6"/>
@@ -9505,7 +9502,7 @@
         <v>30</v>
       </c>
       <c r="B418" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C418" s="6"/>
       <c r="D418" s="6"/>
@@ -9521,7 +9518,7 @@
         <v>30</v>
       </c>
       <c r="B419" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C419" s="6"/>
       <c r="D419" s="6"/>
@@ -9537,7 +9534,7 @@
         <v>30</v>
       </c>
       <c r="B420" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C420" s="6"/>
       <c r="D420" s="6"/>
@@ -9553,7 +9550,7 @@
         <v>30</v>
       </c>
       <c r="B421" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C421" s="6"/>
       <c r="D421" s="6"/>
@@ -9569,7 +9566,7 @@
         <v>30</v>
       </c>
       <c r="B422" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C422" s="6"/>
       <c r="D422" s="6"/>
@@ -9585,7 +9582,7 @@
         <v>30</v>
       </c>
       <c r="B423" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C423" s="6"/>
       <c r="D423" s="6"/>
@@ -9601,7 +9598,7 @@
         <v>30</v>
       </c>
       <c r="B424" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C424" s="6"/>
       <c r="D424" s="6"/>
@@ -9617,7 +9614,7 @@
         <v>30</v>
       </c>
       <c r="B425" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C425" s="6"/>
       <c r="D425" s="6"/>
@@ -9633,7 +9630,7 @@
         <v>30</v>
       </c>
       <c r="B426" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C426" s="6"/>
       <c r="D426" s="6"/>
@@ -9649,7 +9646,7 @@
         <v>30</v>
       </c>
       <c r="B427" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C427" s="6"/>
       <c r="D427" s="6"/>
@@ -9665,7 +9662,7 @@
         <v>30</v>
       </c>
       <c r="B428" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C428" s="6"/>
       <c r="D428" s="6"/>
@@ -9681,7 +9678,7 @@
         <v>30</v>
       </c>
       <c r="B429" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C429" s="6"/>
       <c r="D429" s="6"/>
@@ -9697,7 +9694,7 @@
         <v>30</v>
       </c>
       <c r="B430" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C430" s="6"/>
       <c r="D430" s="6"/>
@@ -9713,7 +9710,7 @@
         <v>30</v>
       </c>
       <c r="B431" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C431" s="6"/>
       <c r="D431" s="6"/>
@@ -9729,7 +9726,7 @@
         <v>30</v>
       </c>
       <c r="B432" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C432" s="6"/>
       <c r="D432" s="6"/>
@@ -9745,7 +9742,7 @@
         <v>30</v>
       </c>
       <c r="B433" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C433" s="6"/>
       <c r="D433" s="6"/>
@@ -9761,7 +9758,7 @@
         <v>30</v>
       </c>
       <c r="B434" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C434" s="6"/>
       <c r="D434" s="6"/>
@@ -9777,7 +9774,7 @@
         <v>30</v>
       </c>
       <c r="B435" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C435" s="6"/>
       <c r="D435" s="6"/>
@@ -9793,7 +9790,7 @@
         <v>30</v>
       </c>
       <c r="B436" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C436" s="6"/>
       <c r="D436" s="6"/>
@@ -9809,7 +9806,7 @@
         <v>30</v>
       </c>
       <c r="B437" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C437" s="6"/>
       <c r="D437" s="6"/>
@@ -9825,10 +9822,10 @@
         <v>77</v>
       </c>
       <c r="B438" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C438" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="C438" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="D438" s="6"/>
       <c r="E438" s="6" t="e">
@@ -9843,10 +9840,10 @@
         <v>77</v>
       </c>
       <c r="B439" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C439" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="C439" s="6" t="s">
-        <v>465</v>
       </c>
       <c r="D439" s="6"/>
       <c r="E439" s="6" t="e">
@@ -9861,10 +9858,10 @@
         <v>77</v>
       </c>
       <c r="B440" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C440" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="C440" s="6" t="s">
-        <v>467</v>
       </c>
       <c r="D440" s="6"/>
       <c r="E440" s="6" t="e">
@@ -9879,10 +9876,10 @@
         <v>77</v>
       </c>
       <c r="B441" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C441" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="C441" s="6" t="s">
-        <v>469</v>
       </c>
       <c r="D441" s="6"/>
       <c r="E441" s="6" t="e">
@@ -9897,10 +9894,10 @@
         <v>77</v>
       </c>
       <c r="B442" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C442" s="6" t="s">
         <v>470</v>
-      </c>
-      <c r="C442" s="6" t="s">
-        <v>471</v>
       </c>
       <c r="D442" s="6"/>
       <c r="E442" s="6" t="e">
@@ -9915,10 +9912,10 @@
         <v>77</v>
       </c>
       <c r="B443" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C443" s="6" t="s">
         <v>472</v>
-      </c>
-      <c r="C443" s="6" t="s">
-        <v>473</v>
       </c>
       <c r="D443" s="6"/>
       <c r="E443" s="6" t="e">
@@ -9933,10 +9930,10 @@
         <v>77</v>
       </c>
       <c r="B444" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C444" s="6" t="s">
         <v>474</v>
-      </c>
-      <c r="C444" s="6" t="s">
-        <v>475</v>
       </c>
       <c r="D444" s="6"/>
       <c r="E444" s="6" t="e">
@@ -9951,10 +9948,10 @@
         <v>77</v>
       </c>
       <c r="B445" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="C445" s="6" t="s">
         <v>476</v>
-      </c>
-      <c r="C445" s="6" t="s">
-        <v>477</v>
       </c>
       <c r="D445" s="6"/>
       <c r="E445" s="6" t="e">
@@ -9969,10 +9966,10 @@
         <v>77</v>
       </c>
       <c r="B446" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C446" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="C446" s="6" t="s">
-        <v>479</v>
       </c>
       <c r="D446" s="6"/>
       <c r="E446" s="6" t="e">
@@ -9987,10 +9984,10 @@
         <v>77</v>
       </c>
       <c r="B447" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="C447" s="6" t="s">
         <v>480</v>
-      </c>
-      <c r="C447" s="6" t="s">
-        <v>481</v>
       </c>
       <c r="D447" s="6"/>
       <c r="E447" s="6" t="e">
@@ -10005,10 +10002,10 @@
         <v>77</v>
       </c>
       <c r="B448" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C448" s="6" t="s">
         <v>482</v>
-      </c>
-      <c r="C448" s="6" t="s">
-        <v>483</v>
       </c>
       <c r="D448" s="6"/>
       <c r="E448" s="6" t="e">
@@ -10023,10 +10020,10 @@
         <v>77</v>
       </c>
       <c r="B449" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="C449" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="C449" s="6" t="s">
-        <v>485</v>
       </c>
       <c r="D449" s="6"/>
       <c r="E449" s="6" t="e">
@@ -10041,10 +10038,10 @@
         <v>77</v>
       </c>
       <c r="B450" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="C450" s="6" t="s">
         <v>486</v>
-      </c>
-      <c r="C450" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="D450" s="6"/>
       <c r="E450" s="6" t="e">
@@ -10059,10 +10056,10 @@
         <v>77</v>
       </c>
       <c r="B451" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="C451" s="6" t="s">
         <v>488</v>
-      </c>
-      <c r="C451" s="6" t="s">
-        <v>489</v>
       </c>
       <c r="D451" s="6"/>
       <c r="E451" s="6" t="e">
@@ -10077,7 +10074,7 @@
         <v>77</v>
       </c>
       <c r="B452" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C452" s="6"/>
       <c r="D452" s="6"/>
@@ -10100,7 +10097,7 @@
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C454" s="6"/>
       <c r="D454" s="6"/>
@@ -10114,7 +10111,7 @@
         <v>11</v>
       </c>
       <c r="B455" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C455" s="6">
         <v>300</v>
@@ -10134,7 +10131,7 @@
         <v>11</v>
       </c>
       <c r="B456" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C456" s="6">
         <v>300</v>
@@ -10154,7 +10151,7 @@
         <v>11</v>
       </c>
       <c r="B457" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C457" s="6">
         <v>400</v>
@@ -10174,7 +10171,7 @@
         <v>11</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C458" s="6">
         <v>400</v>
@@ -10194,7 +10191,7 @@
         <v>11</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C459" s="6">
         <v>500</v>
@@ -10214,7 +10211,7 @@
         <v>11</v>
       </c>
       <c r="B460" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C460" s="6">
         <v>500</v>
@@ -10234,7 +10231,7 @@
         <v>11</v>
       </c>
       <c r="B461" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C461" s="6">
         <v>600</v>
@@ -10254,7 +10251,7 @@
         <v>11</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C462" s="6">
         <v>600</v>
@@ -10274,7 +10271,7 @@
         <v>11</v>
       </c>
       <c r="B463" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C463" s="6">
         <v>700</v>
@@ -10294,7 +10291,7 @@
         <v>11</v>
       </c>
       <c r="B464" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C464" s="6">
         <v>700</v>
@@ -10314,7 +10311,7 @@
         <v>11</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C465" s="6">
         <v>800</v>
@@ -10334,7 +10331,7 @@
         <v>11</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C466" s="6">
         <v>800</v>
@@ -10354,7 +10351,7 @@
         <v>11</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C467" s="6">
         <v>900</v>
@@ -10374,7 +10371,7 @@
         <v>11</v>
       </c>
       <c r="B468" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C468" s="6">
         <v>900</v>
@@ -10394,7 +10391,7 @@
         <v>174</v>
       </c>
       <c r="B469" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>187</v>
@@ -10419,7 +10416,7 @@
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C471" s="6"/>
       <c r="D471" s="6"/>
@@ -10433,13 +10430,13 @@
         <v>30</v>
       </c>
       <c r="B472" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C472" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C472" s="6" t="s">
-        <v>496</v>
-      </c>
       <c r="D472" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E472" s="6" t="e">
         <v>#REF!</v>
@@ -10453,13 +10450,13 @@
         <v>30</v>
       </c>
       <c r="B473" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="C473" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C473" s="6" t="s">
-        <v>496</v>
-      </c>
       <c r="D473" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E473" s="6" t="e">
         <v>#REF!</v>
@@ -10473,13 +10470,13 @@
         <v>30</v>
       </c>
       <c r="B474" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C474" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C474" s="6" t="s">
-        <v>498</v>
-      </c>
       <c r="D474" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E474" s="6" t="e">
         <v>#REF!</v>
@@ -10493,13 +10490,13 @@
         <v>30</v>
       </c>
       <c r="B475" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="C475" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="C475" s="6" t="s">
-        <v>498</v>
-      </c>
       <c r="D475" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E475" s="6" t="e">
         <v>#REF!</v>
@@ -10513,13 +10510,13 @@
         <v>30</v>
       </c>
       <c r="B476" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C476" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C476" s="6" t="s">
-        <v>500</v>
-      </c>
       <c r="D476" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E476" s="6" t="e">
         <v>#REF!</v>
@@ -10533,13 +10530,13 @@
         <v>30</v>
       </c>
       <c r="B477" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="C477" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="C477" s="6" t="s">
-        <v>500</v>
-      </c>
       <c r="D477" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E477" s="6" t="e">
         <v>#REF!</v>
@@ -10553,13 +10550,13 @@
         <v>30</v>
       </c>
       <c r="B478" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D478" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E478" s="6" t="e">
         <v>#REF!</v>
@@ -10573,13 +10570,13 @@
         <v>30</v>
       </c>
       <c r="B479" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D479" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E479" s="6" t="e">
         <v>#REF!</v>
@@ -10593,13 +10590,13 @@
         <v>30</v>
       </c>
       <c r="B480" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D480" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E480" s="6" t="e">
         <v>#REF!</v>
@@ -10613,13 +10610,13 @@
         <v>30</v>
       </c>
       <c r="B481" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D481" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E481" s="6" t="e">
         <v>#REF!</v>
@@ -10633,13 +10630,13 @@
         <v>30</v>
       </c>
       <c r="B482" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C482" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D482" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E482" s="6" t="e">
         <v>#REF!</v>
@@ -10653,13 +10650,13 @@
         <v>30</v>
       </c>
       <c r="B483" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C483" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D483" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E483" s="6" t="e">
         <v>#REF!</v>
@@ -10673,13 +10670,13 @@
         <v>30</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C484" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D484" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E484" s="6" t="e">
         <v>#REF!</v>
@@ -10693,13 +10690,13 @@
         <v>30</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C485" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D485" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E485" s="6" t="e">
         <v>#REF!</v>
@@ -10713,13 +10710,13 @@
         <v>30</v>
       </c>
       <c r="B486" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C486" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D486" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E486" s="6" t="e">
         <v>#REF!</v>
@@ -10733,13 +10730,13 @@
         <v>30</v>
       </c>
       <c r="B487" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C487" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D487" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E487" s="6" t="e">
         <v>#REF!</v>
@@ -10753,13 +10750,13 @@
         <v>30</v>
       </c>
       <c r="B488" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C488" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D488" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E488" s="6" t="e">
         <v>#REF!</v>
@@ -10773,13 +10770,13 @@
         <v>30</v>
       </c>
       <c r="B489" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C489" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D489" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E489" s="6" t="e">
         <v>#REF!</v>
@@ -10793,13 +10790,13 @@
         <v>30</v>
       </c>
       <c r="B490" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C490" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D490" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E490" s="6" t="e">
         <v>#REF!</v>
@@ -10813,13 +10810,13 @@
         <v>30</v>
       </c>
       <c r="B491" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C491" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D491" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E491" s="6" t="e">
         <v>#REF!</v>
@@ -10840,7 +10837,7 @@
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C493" s="6"/>
       <c r="D493" s="6"/>
@@ -10854,10 +10851,10 @@
         <v>77</v>
       </c>
       <c r="B494" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C494" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D494" s="6" t="s">
         <v>187</v>
@@ -10874,10 +10871,10 @@
         <v>77</v>
       </c>
       <c r="B495" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C495" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D495" s="6" t="s">
         <v>187</v>
@@ -10894,10 +10891,10 @@
         <v>77</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C496" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D496" s="6" t="s">
         <v>187</v>
@@ -10914,10 +10911,10 @@
         <v>77</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D497" s="3" t="s">
         <v>187</v>
@@ -10931,10 +10928,10 @@
         <v>77</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D498" s="3" t="s">
         <v>187</v>
@@ -10948,10 +10945,10 @@
         <v>77</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D499" s="3" t="s">
         <v>187</v>
@@ -10965,10 +10962,10 @@
         <v>77</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>187</v>
@@ -10982,10 +10979,10 @@
         <v>77</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D501" s="3" t="s">
         <v>187</v>
@@ -10999,10 +10996,10 @@
         <v>77</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D502" s="3" t="s">
         <v>187</v>
@@ -11016,10 +11013,10 @@
         <v>77</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D503" s="3" t="s">
         <v>187</v>
@@ -11033,10 +11030,10 @@
         <v>77</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D504" s="3" t="s">
         <v>187</v>
@@ -11050,10 +11047,10 @@
         <v>77</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D505" s="3" t="s">
         <v>187</v>
@@ -11067,10 +11064,10 @@
         <v>77</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D506" s="3" t="s">
         <v>187</v>
@@ -11084,10 +11081,10 @@
         <v>77</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D507" s="3" t="s">
         <v>187</v>
@@ -11101,10 +11098,10 @@
         <v>77</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D508" s="3" t="s">
         <v>187</v>
@@ -11118,10 +11115,10 @@
         <v>77</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D509" s="3" t="s">
         <v>187</v>
@@ -11135,10 +11132,10 @@
         <v>77</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D510" s="3" t="s">
         <v>187</v>
@@ -11152,10 +11149,10 @@
         <v>77</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D511" s="3" t="s">
         <v>187</v>
@@ -11169,10 +11166,10 @@
         <v>77</v>
       </c>
       <c r="B512" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C512" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="C512" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="D512" s="3" t="s">
         <v>187</v>
@@ -11186,10 +11183,10 @@
         <v>77</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D513" s="3" t="s">
         <v>187</v>
@@ -11203,7 +11200,7 @@
         <v>174</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C514" s="3" t="s">
         <v>187</v>
@@ -11215,15 +11212,15 @@
     <row r="515" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="516" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B516" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="517" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B517" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C517" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="C517" s="3" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="518" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11231,7 +11228,7 @@
         <v>11</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="519" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11239,7 +11236,7 @@
         <v>11</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="520" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11247,7 +11244,7 @@
         <v>11</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="521" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11255,7 +11252,7 @@
         <v>11</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="522" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11263,7 +11260,7 @@
         <v>11</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="523" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11271,7 +11268,7 @@
         <v>11</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="524" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11279,7 +11276,7 @@
         <v>11</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="525" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11287,12 +11284,12 @@
         <v>11</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="526" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B526" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="527" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11300,7 +11297,7 @@
         <v>77</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="528" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11308,7 +11305,7 @@
         <v>77</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="529" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11316,7 +11313,7 @@
         <v>77</v>
       </c>
       <c r="B529" s="38" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="530" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11324,7 +11321,7 @@
         <v>77</v>
       </c>
       <c r="B530" s="38" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="531" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11332,7 +11329,7 @@
         <v>77</v>
       </c>
       <c r="B531" s="38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="532" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11340,7 +11337,7 @@
         <v>77</v>
       </c>
       <c r="B532" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="533" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11348,7 +11345,7 @@
         <v>77</v>
       </c>
       <c r="B533" s="38" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="534" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11356,7 +11353,7 @@
         <v>77</v>
       </c>
       <c r="B534" s="38" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="535" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11364,7 +11361,7 @@
         <v>77</v>
       </c>
       <c r="B535" s="38" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="536" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11372,7 +11369,7 @@
         <v>77</v>
       </c>
       <c r="B536" s="38" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="537" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11384,7 +11381,7 @@
     <row r="539" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A539" s="3"/>
       <c r="B539" s="38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="540" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11392,7 +11389,7 @@
         <v>11</v>
       </c>
       <c r="B540" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="541" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11400,7 +11397,7 @@
         <v>11</v>
       </c>
       <c r="B541" s="38" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="542" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11408,7 +11405,7 @@
         <v>77</v>
       </c>
       <c r="B542" s="38" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="543" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11416,7 +11413,7 @@
         <v>77</v>
       </c>
       <c r="B543" s="38" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="544" spans="1:2" s="38" customFormat="1" x14ac:dyDescent="0.25">
@@ -11424,7 +11421,7 @@
         <v>77</v>
       </c>
       <c r="B544" s="38" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="545" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11432,7 +11429,7 @@
         <v>77</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="546" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11440,7 +11437,7 @@
         <v>77</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="547" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11448,7 +11445,7 @@
         <v>77</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="548" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11456,7 +11453,7 @@
         <v>11</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="549" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11464,7 +11461,7 @@
         <v>77</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="550" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11472,7 +11469,7 @@
         <v>11</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="551" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11480,7 +11477,7 @@
         <v>77</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="552" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11488,7 +11485,7 @@
         <v>77</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="553" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11496,7 +11493,7 @@
         <v>77</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="554" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11504,7 +11501,7 @@
         <v>11</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="555" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11512,7 +11509,7 @@
         <v>11</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="556" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11520,14 +11517,14 @@
         <v>11</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="557" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="558" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="559" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B559" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="560" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11535,7 +11532,7 @@
         <v>164</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="561" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11543,7 +11540,7 @@
         <v>164</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="562" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11551,7 +11548,7 @@
         <v>164</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="563" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11559,7 +11556,7 @@
         <v>164</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="564" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11567,7 +11564,7 @@
         <v>164</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="565" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11575,7 +11572,7 @@
         <v>164</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="566" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11583,7 +11580,7 @@
         <v>11</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="567" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11591,12 +11588,12 @@
         <v>77</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="568" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B568" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="569" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11604,23 +11601,23 @@
         <v>11</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="570" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A570" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="B570" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="B570" s="3" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="571" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A571" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="572" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11628,7 +11625,7 @@
         <v>77</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="573" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11636,7 +11633,7 @@
         <v>77</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="574" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11644,7 +11641,7 @@
         <v>11</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="575" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11652,7 +11649,7 @@
         <v>11</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="576" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -11660,7 +11657,7 @@
         <v>11</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.25">
@@ -11668,7 +11665,7 @@
         <v>11</v>
       </c>
       <c r="B577" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C577" s="6"/>
       <c r="D577" s="6"/>
@@ -11682,7 +11679,7 @@
         <v>11</v>
       </c>
       <c r="B578" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C578" s="6"/>
       <c r="D578" s="6"/>
@@ -11696,7 +11693,7 @@
         <v>11</v>
       </c>
       <c r="B579" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C579" s="6"/>
       <c r="D579" s="6"/>
@@ -11710,7 +11707,7 @@
         <v>11</v>
       </c>
       <c r="B580" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C580" s="6"/>
       <c r="D580" s="6"/>
@@ -11724,7 +11721,7 @@
         <v>11</v>
       </c>
       <c r="B581" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C581" s="6"/>
       <c r="D581" s="6"/>
@@ -11738,7 +11735,7 @@
         <v>11</v>
       </c>
       <c r="B582" s="6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C582" s="6"/>
       <c r="D582" s="6"/>
@@ -11752,7 +11749,7 @@
         <v>11</v>
       </c>
       <c r="B583" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C583" s="6"/>
       <c r="D583" s="6"/>
@@ -11766,7 +11763,7 @@
         <v>11</v>
       </c>
       <c r="B584" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C584" s="6"/>
       <c r="D584" s="6"/>
@@ -11780,7 +11777,7 @@
         <v>11</v>
       </c>
       <c r="B585" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C585" s="6"/>
       <c r="D585" s="6"/>
@@ -11794,7 +11791,7 @@
         <v>11</v>
       </c>
       <c r="B586" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C586" s="6"/>
       <c r="D586" s="6"/>
@@ -11806,7 +11803,7 @@
     <row r="587" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="49"/>
       <c r="B587" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C587" s="6"/>
       <c r="D587" s="6"/>
@@ -11820,7 +11817,7 @@
         <v>11</v>
       </c>
       <c r="B588" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C588" s="6"/>
       <c r="D588" s="6"/>
@@ -11834,7 +11831,7 @@
         <v>11</v>
       </c>
       <c r="B589" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C589" s="6"/>
       <c r="D589" s="6"/>
@@ -11855,7 +11852,7 @@
     <row r="591" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="49"/>
       <c r="B591" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C591" s="6"/>
       <c r="D591" s="6"/>
@@ -11869,7 +11866,7 @@
         <v>11</v>
       </c>
       <c r="B592" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C592" s="6"/>
       <c r="D592" s="6"/>
@@ -11883,7 +11880,7 @@
         <v>11</v>
       </c>
       <c r="B593" s="6" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C593" s="6"/>
       <c r="D593" s="6"/>
@@ -11897,7 +11894,7 @@
         <v>11</v>
       </c>
       <c r="B594" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C594" s="6"/>
       <c r="D594" s="6"/>
@@ -11911,7 +11908,7 @@
         <v>11</v>
       </c>
       <c r="B595" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C595" s="6"/>
       <c r="D595" s="6"/>
@@ -11925,7 +11922,7 @@
         <v>11</v>
       </c>
       <c r="B596" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C596" s="6"/>
       <c r="D596" s="6"/>
@@ -11939,7 +11936,7 @@
         <v>11</v>
       </c>
       <c r="B597" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C597" s="6"/>
       <c r="D597" s="6"/>
@@ -11953,7 +11950,7 @@
         <v>11</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C598" s="6"/>
       <c r="D598" s="6"/>
@@ -11983,10 +11980,10 @@
     <row r="601" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="49"/>
       <c r="B601" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C601" s="6" t="s">
         <v>608</v>
-      </c>
-      <c r="C601" s="6" t="s">
-        <v>609</v>
       </c>
       <c r="D601" s="6"/>
       <c r="E601" s="6"/>
@@ -11999,7 +11996,7 @@
         <v>11</v>
       </c>
       <c r="B602" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C602" s="6">
         <v>250</v>
@@ -12015,7 +12012,7 @@
         <v>11</v>
       </c>
       <c r="B603" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C603" s="6">
         <v>300</v>
@@ -12031,7 +12028,7 @@
         <v>11</v>
       </c>
       <c r="B604" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C604" s="6">
         <v>350</v>
@@ -12047,7 +12044,7 @@
         <v>11</v>
       </c>
       <c r="B605" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C605" s="6">
         <v>400</v>
@@ -12063,7 +12060,7 @@
         <v>11</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C606" s="6">
         <v>450</v>
@@ -12079,7 +12076,7 @@
         <v>11</v>
       </c>
       <c r="B607" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C607" s="6">
         <v>500</v>
@@ -12095,7 +12092,7 @@
         <v>11</v>
       </c>
       <c r="B608" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C608" s="6">
         <v>550</v>
@@ -12111,7 +12108,7 @@
         <v>11</v>
       </c>
       <c r="B609" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C609" s="6">
         <v>600</v>
@@ -12127,7 +12124,7 @@
         <v>11</v>
       </c>
       <c r="B610" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C610" s="6">
         <v>650</v>
@@ -12143,7 +12140,7 @@
         <v>11</v>
       </c>
       <c r="B611" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C611" s="6">
         <v>250</v>
@@ -12159,7 +12156,7 @@
         <v>11</v>
       </c>
       <c r="B612" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C612" s="6">
         <v>300</v>
@@ -12175,7 +12172,7 @@
         <v>11</v>
       </c>
       <c r="B613" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C613" s="6">
         <v>350</v>
@@ -12191,7 +12188,7 @@
         <v>11</v>
       </c>
       <c r="B614" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C614" s="6">
         <v>400</v>
@@ -12207,7 +12204,7 @@
         <v>11</v>
       </c>
       <c r="B615" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C615" s="6">
         <v>450</v>
@@ -12223,7 +12220,7 @@
         <v>11</v>
       </c>
       <c r="B616" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C616" s="6">
         <v>500</v>
@@ -12239,7 +12236,7 @@
         <v>11</v>
       </c>
       <c r="B617" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C617" s="6">
         <v>550</v>
@@ -12255,7 +12252,7 @@
         <v>11</v>
       </c>
       <c r="B618" s="6" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C618" s="6">
         <v>600</v>
@@ -12271,7 +12268,7 @@
         <v>11</v>
       </c>
       <c r="B619" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C619" s="6">
         <v>300</v>
@@ -12287,7 +12284,7 @@
         <v>11</v>
       </c>
       <c r="B620" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C620" s="6">
         <v>350</v>
@@ -12303,7 +12300,7 @@
         <v>11</v>
       </c>
       <c r="B621" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C621" s="6">
         <v>400</v>
@@ -12319,7 +12316,7 @@
         <v>11</v>
       </c>
       <c r="B622" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C622" s="6">
         <v>450</v>
@@ -12335,7 +12332,7 @@
         <v>11</v>
       </c>
       <c r="B623" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C623" s="6">
         <v>500</v>
@@ -12351,7 +12348,7 @@
         <v>11</v>
       </c>
       <c r="B624" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C624" s="6">
         <v>550</v>
@@ -12367,7 +12364,7 @@
         <v>11</v>
       </c>
       <c r="B625" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C625" s="6">
         <v>600</v>
@@ -12383,10 +12380,10 @@
         <v>11</v>
       </c>
       <c r="B626" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C626" s="6" t="s">
         <v>613</v>
-      </c>
-      <c r="C626" s="6" t="s">
-        <v>614</v>
       </c>
       <c r="D626" s="6"/>
       <c r="E626" s="6"/>
@@ -12399,7 +12396,7 @@
         <v>11</v>
       </c>
       <c r="B627" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C627" s="6">
         <v>300</v>
@@ -12415,7 +12412,7 @@
         <v>11</v>
       </c>
       <c r="B628" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C628" s="6">
         <v>350</v>
@@ -12431,7 +12428,7 @@
         <v>11</v>
       </c>
       <c r="B629" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C629" s="6">
         <v>400</v>
@@ -12447,7 +12444,7 @@
         <v>11</v>
       </c>
       <c r="B630" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C630" s="6">
         <v>450</v>
@@ -12463,7 +12460,7 @@
         <v>11</v>
       </c>
       <c r="B631" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C631" s="6">
         <v>500</v>
@@ -12479,7 +12476,7 @@
         <v>11</v>
       </c>
       <c r="B632" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C632" s="6">
         <v>550</v>
@@ -12495,7 +12492,7 @@
         <v>11</v>
       </c>
       <c r="B633" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C633" s="6">
         <v>400</v>
@@ -12511,7 +12508,7 @@
         <v>11</v>
       </c>
       <c r="B634" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C634" s="6">
         <v>450</v>
@@ -12527,7 +12524,7 @@
         <v>11</v>
       </c>
       <c r="B635" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C635" s="6">
         <v>500</v>
@@ -12543,10 +12540,10 @@
         <v>11</v>
       </c>
       <c r="B636" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C636" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="C636" s="6" t="s">
-        <v>618</v>
       </c>
       <c r="D636" s="6"/>
       <c r="E636" s="6"/>
@@ -12559,10 +12556,10 @@
         <v>11</v>
       </c>
       <c r="B637" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="C637" s="6" t="s">
         <v>619</v>
-      </c>
-      <c r="C637" s="6" t="s">
-        <v>620</v>
       </c>
       <c r="D637" s="6"/>
       <c r="E637" s="6"/>
@@ -12575,10 +12572,10 @@
         <v>11</v>
       </c>
       <c r="B638" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C638" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D638" s="6"/>
       <c r="E638" s="6"/>
@@ -12591,10 +12588,10 @@
         <v>11</v>
       </c>
       <c r="B639" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C639" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D639" s="6"/>
       <c r="E639" s="6"/>
@@ -12607,10 +12604,10 @@
         <v>11</v>
       </c>
       <c r="B640" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C640" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D640" s="6"/>
       <c r="E640" s="6"/>
@@ -12623,10 +12620,10 @@
         <v>11</v>
       </c>
       <c r="B641" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C641" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D641" s="6"/>
       <c r="E641" s="6"/>
@@ -12639,10 +12636,10 @@
         <v>11</v>
       </c>
       <c r="B642" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C642" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D642" s="6"/>
       <c r="E642" s="6"/>
@@ -12655,10 +12652,10 @@
         <v>11</v>
       </c>
       <c r="B643" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C643" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D643" s="6"/>
       <c r="E643" s="6"/>
@@ -12671,10 +12668,10 @@
         <v>11</v>
       </c>
       <c r="B644" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="C644" s="6" t="s">
         <v>626</v>
-      </c>
-      <c r="C644" s="6" t="s">
-        <v>627</v>
       </c>
       <c r="D644" s="6"/>
       <c r="E644" s="6"/>
@@ -12687,10 +12684,10 @@
         <v>11</v>
       </c>
       <c r="B645" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C645" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D645" s="6"/>
       <c r="E645" s="6"/>
@@ -12703,10 +12700,10 @@
         <v>11</v>
       </c>
       <c r="B646" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C646" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D646" s="6"/>
       <c r="E646" s="6"/>
@@ -12719,10 +12716,10 @@
         <v>11</v>
       </c>
       <c r="B647" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C647" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D647" s="6"/>
       <c r="E647" s="6"/>
@@ -12735,10 +12732,10 @@
         <v>11</v>
       </c>
       <c r="B648" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C648" s="6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D648" s="6"/>
       <c r="E648" s="6"/>
@@ -12751,10 +12748,10 @@
         <v>11</v>
       </c>
       <c r="B649" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C649" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="C649" s="6" t="s">
-        <v>629</v>
       </c>
       <c r="D649" s="6"/>
       <c r="E649" s="6"/>
@@ -12767,10 +12764,10 @@
         <v>11</v>
       </c>
       <c r="B650" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C650" s="6" t="s">
         <v>630</v>
-      </c>
-      <c r="C650" s="6" t="s">
-        <v>631</v>
       </c>
       <c r="D650" s="6"/>
       <c r="E650" s="6"/>
@@ -12783,10 +12780,10 @@
         <v>164</v>
       </c>
       <c r="B651" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C651" s="6" t="s">
         <v>632</v>
-      </c>
-      <c r="C651" s="6" t="s">
-        <v>633</v>
       </c>
       <c r="D651" s="6"/>
       <c r="E651" s="6"/>
@@ -12799,10 +12796,10 @@
         <v>164</v>
       </c>
       <c r="B652" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C652" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D652" s="6"/>
       <c r="E652" s="6"/>
@@ -12815,10 +12812,10 @@
         <v>164</v>
       </c>
       <c r="B653" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C653" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D653" s="6"/>
       <c r="E653" s="6"/>
@@ -12831,10 +12828,10 @@
         <v>164</v>
       </c>
       <c r="B654" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C654" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D654" s="6"/>
       <c r="E654" s="6"/>
@@ -12847,10 +12844,10 @@
         <v>164</v>
       </c>
       <c r="B655" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C655" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D655" s="6"/>
       <c r="E655" s="6"/>
@@ -12863,10 +12860,10 @@
         <v>164</v>
       </c>
       <c r="B656" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C656" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D656" s="6"/>
       <c r="E656" s="6"/>
@@ -12879,10 +12876,10 @@
         <v>164</v>
       </c>
       <c r="B657" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C657" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D657" s="6"/>
       <c r="E657" s="6"/>
@@ -12895,10 +12892,10 @@
         <v>164</v>
       </c>
       <c r="B658" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C658" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D658" s="6"/>
       <c r="E658" s="6"/>
@@ -12911,7 +12908,7 @@
         <v>164</v>
       </c>
       <c r="B659" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C659" s="6">
         <v>300</v>
@@ -12927,7 +12924,7 @@
         <v>164</v>
       </c>
       <c r="B660" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C660" s="6">
         <v>350</v>
@@ -12943,7 +12940,7 @@
         <v>164</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C661" s="6">
         <v>400</v>
@@ -12959,7 +12956,7 @@
         <v>164</v>
       </c>
       <c r="B662" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C662" s="6">
         <v>450</v>
@@ -12975,7 +12972,7 @@
         <v>164</v>
       </c>
       <c r="B663" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C663" s="6">
         <v>500</v>
@@ -12991,7 +12988,7 @@
         <v>164</v>
       </c>
       <c r="B664" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C664" s="6">
         <v>550</v>
@@ -13007,7 +13004,7 @@
         <v>164</v>
       </c>
       <c r="B665" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C665" s="6">
         <v>600</v>
@@ -13023,10 +13020,10 @@
         <v>30</v>
       </c>
       <c r="B666" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C666" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="C666" s="6" t="s">
-        <v>640</v>
       </c>
       <c r="D666" s="6"/>
       <c r="E666" s="6"/>
@@ -13039,10 +13036,10 @@
         <v>30</v>
       </c>
       <c r="B667" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C667" s="6" t="s">
         <v>641</v>
-      </c>
-      <c r="C667" s="6" t="s">
-        <v>642</v>
       </c>
       <c r="D667" s="6"/>
       <c r="E667" s="6"/>
@@ -13055,10 +13052,10 @@
         <v>30</v>
       </c>
       <c r="B668" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C668" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D668" s="6"/>
       <c r="E668" s="6"/>
@@ -13071,10 +13068,10 @@
         <v>30</v>
       </c>
       <c r="B669" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C669" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D669" s="6"/>
       <c r="E669" s="6"/>
@@ -13087,10 +13084,10 @@
         <v>30</v>
       </c>
       <c r="B670" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C670" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D670" s="6"/>
       <c r="E670" s="6"/>
@@ -13103,10 +13100,10 @@
         <v>30</v>
       </c>
       <c r="B671" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C671" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D671" s="6"/>
       <c r="E671" s="6"/>
@@ -13119,10 +13116,10 @@
         <v>30</v>
       </c>
       <c r="B672" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C672" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D672" s="6"/>
       <c r="E672" s="6"/>
@@ -13135,10 +13132,10 @@
         <v>30</v>
       </c>
       <c r="B673" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C673" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D673" s="6"/>
       <c r="E673" s="6"/>
@@ -13151,10 +13148,10 @@
         <v>30</v>
       </c>
       <c r="B674" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C674" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="C674" s="6" t="s">
-        <v>650</v>
       </c>
       <c r="D674" s="6"/>
       <c r="E674" s="6"/>
@@ -13167,10 +13164,10 @@
         <v>30</v>
       </c>
       <c r="B675" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C675" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D675" s="6"/>
       <c r="E675" s="6"/>
@@ -13183,10 +13180,10 @@
         <v>30</v>
       </c>
       <c r="B676" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C676" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D676" s="6"/>
       <c r="E676" s="6"/>
@@ -13199,10 +13196,10 @@
         <v>30</v>
       </c>
       <c r="B677" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C677" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D677" s="6"/>
       <c r="E677" s="6"/>
@@ -13215,10 +13212,10 @@
         <v>30</v>
       </c>
       <c r="B678" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C678" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D678" s="6"/>
       <c r="E678" s="6"/>
@@ -13231,10 +13228,10 @@
         <v>30</v>
       </c>
       <c r="B679" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C679" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D679" s="6"/>
       <c r="E679" s="6"/>
@@ -13247,10 +13244,10 @@
         <v>30</v>
       </c>
       <c r="B680" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C680" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D680" s="6"/>
       <c r="E680" s="6"/>
@@ -13263,10 +13260,10 @@
         <v>30</v>
       </c>
       <c r="B681" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C681" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="C681" s="6" t="s">
-        <v>656</v>
       </c>
       <c r="D681" s="6"/>
       <c r="E681" s="6"/>
@@ -13279,10 +13276,10 @@
         <v>30</v>
       </c>
       <c r="B682" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C682" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D682" s="6"/>
       <c r="E682" s="6"/>
@@ -13295,10 +13292,10 @@
         <v>30</v>
       </c>
       <c r="B683" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C683" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D683" s="6"/>
       <c r="E683" s="6"/>
@@ -13311,10 +13308,10 @@
         <v>30</v>
       </c>
       <c r="B684" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C684" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D684" s="6"/>
       <c r="E684" s="6"/>
@@ -13327,10 +13324,10 @@
         <v>30</v>
       </c>
       <c r="B685" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C685" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D685" s="6"/>
       <c r="E685" s="6"/>
@@ -13343,10 +13340,10 @@
         <v>30</v>
       </c>
       <c r="B686" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="C686" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="C686" s="6" t="s">
-        <v>660</v>
       </c>
       <c r="D686" s="6"/>
       <c r="E686" s="6"/>
@@ -13359,10 +13356,10 @@
         <v>30</v>
       </c>
       <c r="B687" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C687" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D687" s="6"/>
       <c r="E687" s="6"/>
@@ -13375,10 +13372,10 @@
         <v>30</v>
       </c>
       <c r="B688" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C688" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D688" s="6"/>
       <c r="E688" s="6"/>
@@ -13391,10 +13388,10 @@
         <v>30</v>
       </c>
       <c r="B689" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C689" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D689" s="6"/>
       <c r="E689" s="6"/>
@@ -13407,10 +13404,10 @@
         <v>30</v>
       </c>
       <c r="B690" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C690" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="C690" s="6" t="s">
-        <v>662</v>
       </c>
       <c r="D690" s="6"/>
       <c r="E690" s="6"/>
@@ -13423,10 +13420,10 @@
         <v>30</v>
       </c>
       <c r="B691" s="6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C691" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D691" s="6"/>
       <c r="E691" s="6"/>
@@ -13439,10 +13436,10 @@
         <v>30</v>
       </c>
       <c r="B692" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C692" s="6" t="s">
         <v>663</v>
-      </c>
-      <c r="C692" s="6" t="s">
-        <v>664</v>
       </c>
       <c r="D692" s="6"/>
       <c r="E692" s="6"/>
@@ -13455,10 +13452,10 @@
         <v>30</v>
       </c>
       <c r="B693" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C693" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D693" s="6"/>
       <c r="E693" s="6"/>
@@ -13471,10 +13468,10 @@
         <v>30</v>
       </c>
       <c r="B694" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C694" s="6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D694" s="6"/>
       <c r="E694" s="6"/>
@@ -13487,10 +13484,10 @@
         <v>30</v>
       </c>
       <c r="B695" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C695" s="6" t="s">
         <v>666</v>
-      </c>
-      <c r="C695" s="6" t="s">
-        <v>667</v>
       </c>
       <c r="D695" s="6"/>
       <c r="E695" s="6"/>
@@ -13503,10 +13500,10 @@
         <v>30</v>
       </c>
       <c r="B696" s="6" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C696" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D696" s="6"/>
       <c r="E696" s="6"/>
@@ -13519,10 +13516,10 @@
         <v>30</v>
       </c>
       <c r="B697" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C697" s="6" t="s">
         <v>669</v>
-      </c>
-      <c r="C697" s="6" t="s">
-        <v>670</v>
       </c>
       <c r="D697" s="6"/>
       <c r="E697" s="6"/>
@@ -13535,10 +13532,10 @@
         <v>30</v>
       </c>
       <c r="B698" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C698" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D698" s="6"/>
       <c r="E698" s="6"/>
@@ -13551,10 +13548,10 @@
         <v>30</v>
       </c>
       <c r="B699" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C699" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D699" s="6"/>
       <c r="E699" s="6"/>
@@ -13567,10 +13564,10 @@
         <v>30</v>
       </c>
       <c r="B700" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C700" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D700" s="6"/>
       <c r="E700" s="6"/>
@@ -13583,10 +13580,10 @@
         <v>30</v>
       </c>
       <c r="B701" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C701" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D701" s="6"/>
       <c r="E701" s="6"/>
@@ -13599,10 +13596,10 @@
         <v>30</v>
       </c>
       <c r="B702" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C702" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D702" s="6"/>
       <c r="E702" s="6"/>
@@ -13615,10 +13612,10 @@
         <v>30</v>
       </c>
       <c r="B703" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C703" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D703" s="6"/>
       <c r="E703" s="6"/>
@@ -13631,10 +13628,10 @@
         <v>30</v>
       </c>
       <c r="B704" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C704" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D704" s="6"/>
       <c r="E704" s="6"/>
@@ -13647,10 +13644,10 @@
         <v>30</v>
       </c>
       <c r="B705" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C705" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D705" s="6"/>
       <c r="E705" s="6"/>
@@ -13663,10 +13660,10 @@
         <v>30</v>
       </c>
       <c r="B706" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C706" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D706" s="6"/>
       <c r="E706" s="6"/>
@@ -13679,10 +13676,10 @@
         <v>30</v>
       </c>
       <c r="B707" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C707" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D707" s="6"/>
       <c r="E707" s="6"/>
@@ -13695,10 +13692,10 @@
         <v>30</v>
       </c>
       <c r="B708" s="6" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C708" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D708" s="6"/>
       <c r="E708" s="6"/>
@@ -13711,10 +13708,10 @@
         <v>30</v>
       </c>
       <c r="B709" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C709" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D709" s="6"/>
       <c r="E709" s="6"/>
@@ -13727,10 +13724,10 @@
         <v>30</v>
       </c>
       <c r="B710" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C710" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D710" s="6"/>
       <c r="E710" s="6"/>
@@ -13743,10 +13740,10 @@
         <v>30</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C711" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D711" s="6"/>
       <c r="E711" s="6"/>
@@ -13759,10 +13756,10 @@
         <v>30</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C712" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D712" s="6"/>
       <c r="E712" s="6"/>
@@ -13775,10 +13772,10 @@
         <v>30</v>
       </c>
       <c r="B713" s="6" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C713" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D713" s="6"/>
       <c r="E713" s="6"/>
@@ -13791,10 +13788,10 @@
         <v>30</v>
       </c>
       <c r="B714" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C714" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D714" s="6"/>
       <c r="E714" s="6"/>
@@ -13807,10 +13804,10 @@
         <v>30</v>
       </c>
       <c r="B715" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C715" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D715" s="6"/>
       <c r="E715" s="6"/>
@@ -13823,10 +13820,10 @@
         <v>30</v>
       </c>
       <c r="B716" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C716" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D716" s="6"/>
       <c r="E716" s="6"/>
@@ -13839,10 +13836,10 @@
         <v>30</v>
       </c>
       <c r="B717" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C717" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D717" s="6"/>
       <c r="E717" s="6"/>
@@ -13855,10 +13852,10 @@
         <v>30</v>
       </c>
       <c r="B718" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C718" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D718" s="6"/>
       <c r="E718" s="6"/>
@@ -13871,10 +13868,10 @@
         <v>30</v>
       </c>
       <c r="B719" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C719" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D719" s="6"/>
       <c r="E719" s="6"/>
@@ -13887,10 +13884,10 @@
         <v>30</v>
       </c>
       <c r="B720" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C720" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D720" s="6"/>
       <c r="E720" s="6"/>
@@ -13903,10 +13900,10 @@
         <v>30</v>
       </c>
       <c r="B721" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C721" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D721" s="6"/>
       <c r="E721" s="6"/>
@@ -13919,10 +13916,10 @@
         <v>30</v>
       </c>
       <c r="B722" s="6" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C722" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D722" s="6"/>
       <c r="E722" s="6"/>
@@ -13935,10 +13932,10 @@
         <v>30</v>
       </c>
       <c r="B723" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C723" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D723" s="6"/>
       <c r="E723" s="6"/>
@@ -13951,10 +13948,10 @@
         <v>30</v>
       </c>
       <c r="B724" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C724" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D724" s="6"/>
       <c r="E724" s="6"/>
@@ -13967,10 +13964,10 @@
         <v>30</v>
       </c>
       <c r="B725" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C725" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D725" s="6"/>
       <c r="E725" s="6"/>
@@ -13983,10 +13980,10 @@
         <v>30</v>
       </c>
       <c r="B726" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C726" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D726" s="6"/>
       <c r="E726" s="6"/>
@@ -13999,10 +13996,10 @@
         <v>30</v>
       </c>
       <c r="B727" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C727" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D727" s="6"/>
       <c r="E727" s="6"/>
@@ -14015,10 +14012,10 @@
         <v>30</v>
       </c>
       <c r="B728" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C728" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D728" s="6"/>
       <c r="E728" s="6"/>
@@ -14031,10 +14028,10 @@
         <v>30</v>
       </c>
       <c r="B729" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C729" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D729" s="6"/>
       <c r="E729" s="6"/>
@@ -14047,10 +14044,10 @@
         <v>30</v>
       </c>
       <c r="B730" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C730" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D730" s="6"/>
       <c r="E730" s="6"/>
@@ -14063,10 +14060,10 @@
         <v>30</v>
       </c>
       <c r="B731" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C731" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D731" s="6"/>
       <c r="E731" s="6"/>
@@ -14079,10 +14076,10 @@
         <v>30</v>
       </c>
       <c r="B732" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C732" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D732" s="6"/>
       <c r="E732" s="6"/>
@@ -14095,10 +14092,10 @@
         <v>30</v>
       </c>
       <c r="B733" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C733" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D733" s="6"/>
       <c r="E733" s="6"/>
@@ -14111,10 +14108,10 @@
         <v>30</v>
       </c>
       <c r="B734" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C734" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D734" s="6"/>
       <c r="E734" s="6"/>
@@ -14127,10 +14124,10 @@
         <v>30</v>
       </c>
       <c r="B735" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C735" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D735" s="6"/>
       <c r="E735" s="6"/>
@@ -14143,10 +14140,10 @@
         <v>30</v>
       </c>
       <c r="B736" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C736" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D736" s="6"/>
       <c r="E736" s="6"/>
@@ -14159,10 +14156,10 @@
         <v>30</v>
       </c>
       <c r="B737" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C737" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D737" s="6"/>
       <c r="E737" s="6"/>
@@ -14175,10 +14172,10 @@
         <v>30</v>
       </c>
       <c r="B738" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C738" s="6" t="s">
         <v>682</v>
-      </c>
-      <c r="C738" s="6" t="s">
-        <v>683</v>
       </c>
       <c r="D738" s="6"/>
       <c r="E738" s="6"/>
@@ -14191,10 +14188,10 @@
         <v>30</v>
       </c>
       <c r="B739" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C739" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D739" s="6"/>
       <c r="E739" s="6"/>
@@ -14207,7 +14204,7 @@
         <v>30</v>
       </c>
       <c r="B740" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C740" s="6">
         <v>550</v>
@@ -14223,10 +14220,10 @@
         <v>30</v>
       </c>
       <c r="B741" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C741" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D741" s="6"/>
       <c r="E741" s="6"/>
@@ -14239,10 +14236,10 @@
         <v>30</v>
       </c>
       <c r="B742" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C742" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="C742" s="6" t="s">
-        <v>686</v>
       </c>
       <c r="D742" s="6"/>
       <c r="E742" s="6"/>
@@ -14255,7 +14252,7 @@
         <v>30</v>
       </c>
       <c r="B743" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C743" s="6">
         <v>550</v>
@@ -14271,10 +14268,10 @@
         <v>30</v>
       </c>
       <c r="B744" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C744" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D744" s="6"/>
       <c r="E744" s="6"/>
@@ -14287,10 +14284,10 @@
         <v>30</v>
       </c>
       <c r="B745" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C745" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.25">
@@ -14298,7 +14295,7 @@
         <v>30</v>
       </c>
       <c r="B746" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C746" s="3">
         <v>550</v>
@@ -14309,10 +14306,10 @@
         <v>30</v>
       </c>
       <c r="B747" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C747" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.25">
@@ -14320,10 +14317,10 @@
         <v>30</v>
       </c>
       <c r="B748" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C748" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.25">
@@ -14331,7 +14328,7 @@
         <v>30</v>
       </c>
       <c r="B749" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C749" s="3">
         <v>550</v>
@@ -14342,7 +14339,7 @@
         <v>30</v>
       </c>
       <c r="B750" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C750" s="3">
         <v>600</v>
@@ -14353,7 +14350,7 @@
         <v>30</v>
       </c>
       <c r="B751" s="6" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.25">
@@ -14361,10 +14358,10 @@
         <v>11</v>
       </c>
       <c r="B752" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C752" s="3" t="s">
         <v>690</v>
-      </c>
-      <c r="C752" s="3" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.25">
@@ -14372,10 +14369,10 @@
         <v>30</v>
       </c>
       <c r="B753" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C753" s="3" t="s">
         <v>692</v>
-      </c>
-      <c r="C753" s="3" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
@@ -14383,10 +14380,10 @@
         <v>30</v>
       </c>
       <c r="B754" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C754" s="3" t="s">
         <v>694</v>
-      </c>
-      <c r="C754" s="3" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
@@ -14394,10 +14391,10 @@
         <v>30</v>
       </c>
       <c r="B755" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C755" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
@@ -14405,7 +14402,7 @@
         <v>30</v>
       </c>
       <c r="B756" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
@@ -14413,7 +14410,7 @@
         <v>30</v>
       </c>
       <c r="B757" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
@@ -14421,7 +14418,7 @@
         <v>11</v>
       </c>
       <c r="B758" s="6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
@@ -14429,7 +14426,7 @@
         <v>30</v>
       </c>
       <c r="B759" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
@@ -14437,7 +14434,7 @@
         <v>30</v>
       </c>
       <c r="B760" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.25">
@@ -14445,7 +14442,7 @@
         <v>11</v>
       </c>
       <c r="B761" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.25">
@@ -14453,7 +14450,7 @@
         <v>164</v>
       </c>
       <c r="B762" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.25">
@@ -14461,7 +14458,7 @@
         <v>30</v>
       </c>
       <c r="B763" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
   </sheetData>
